--- a/Vzdalenosti.xlsx
+++ b/Vzdalenosti.xlsx
@@ -5,17 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://vutbr-my.sharepoint.com/personal/238513_vutbr_cz/Documents/Bakalářská práce/Mereni1/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Files\Projects\ESP_UWB\ESP_UWB_calib\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="168" documentId="8_{35430942-6250-44EA-8DF2-32B045834A37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D763EB94-D9B2-4A34-A36B-C5EB98AA6838}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79568A37-DDFB-4377-A257-6C4797D46796}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F1063175-49E6-4C27-B20D-0C6AB9E2CAF2}"/>
+    <workbookView xWindow="4290" yWindow="1845" windowWidth="22305" windowHeight="19155" xr2:uid="{F1063175-49E6-4C27-B20D-0C6AB9E2CAF2}"/>
   </bookViews>
   <sheets>
     <sheet name="List1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -97,7 +98,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -137,7 +138,7 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -456,7 +457,7 @@
   <dimension ref="A2:V22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="X12" sqref="X12"/>
+      <selection activeCell="K33" sqref="K33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -848,15 +849,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100218BDA40371C514DA26174D1944E2E60" ma:contentTypeVersion="18" ma:contentTypeDescription="Vytvoří nový dokument" ma:contentTypeScope="" ma:versionID="e19f6a943cdcf17f6ed34e644dc414fc">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="8d16774e-5810-422d-950f-4bafbda8ee74" xmlns:ns4="5f180ae0-adf0-458b-904a-821b5f3c1d7e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9a6ea3a82c8d0c39bdfe480f28812071" ns3:_="" ns4:_="">
     <xsd:import namespace="8d16774e-5810-422d-950f-4bafbda8ee74"/>
@@ -1109,6 +1101,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -1118,14 +1119,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{17949F45-5528-43D8-A0F7-D4196BD3D46C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1C7CD405-6A19-4ED6-B46A-B2D79BBBD9A6}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1140,6 +1133,14 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{17949F45-5528-43D8-A0F7-D4196BD3D46C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
